--- a/gui/registrationnew.xlsx
+++ b/gui/registrationnew.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12645" windowWidth="22260" xWindow="0" yWindow="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,71 +11,6 @@
   <definedNames/>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Course</t>
-  </si>
-  <si>
-    <t>Semester</t>
-  </si>
-  <si>
-    <t>Form Number</t>
-  </si>
-  <si>
-    <t>Contact Nmber</t>
-  </si>
-  <si>
-    <t>Email id</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>raghu</t>
-  </si>
-  <si>
-    <t>python</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>9393939</t>
-  </si>
-  <si>
-    <t>aks@gmail.com</t>
-  </si>
-  <si>
-    <t>mcechs</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>test course</t>
-  </si>
-  <si>
-    <t>tes</t>
-  </si>
-  <si>
-    <t>3030393</t>
-  </si>
-  <si>
-    <t>itit</t>
-  </si>
-  <si>
-    <t>aakk</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -108,15 +43,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -387,93 +322,172 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="30"/>
-    <col customWidth="1" max="2" min="2" width="10"/>
-    <col customWidth="1" max="3" min="3" width="10"/>
-    <col customWidth="1" max="4" min="4" width="20"/>
-    <col customWidth="1" max="5" min="5" width="20"/>
-    <col customWidth="1" max="6" min="6" width="40"/>
-    <col customWidth="1" max="7" min="7" width="50"/>
+    <col width="30" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="2" max="2"/>
+    <col width="10" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="40" customWidth="1" min="6" max="6"/>
+    <col width="50" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Course</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Form Number</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Contact Nmber</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Email id</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Address</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>raghu</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>9393939</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>aks@gmail.com</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>mcechs</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>19</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>test course</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>tes</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>tes</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>3030393</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>itit</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>aakk</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>rakesh</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98464646</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>prasad@gmail.com</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>